--- a/published-data/fonds-solidarite/fds-2021-04-18/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-04-18/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1800,13 +1800,13 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>26623</v>
+        <v>26622</v>
       </c>
       <c r="D20">
         <v>6822</v>
       </c>
       <c r="E20">
-        <v>45586368</v>
+        <v>45584568</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -3480,13 +3480,13 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>84447</v>
+        <v>84448</v>
       </c>
       <c r="D68">
-        <v>22601</v>
+        <v>22602</v>
       </c>
       <c r="E68">
-        <v>139519668</v>
+        <v>139521468</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
